--- a/OldMutual/Input/FilteredStatementOfAccount.xlsx
+++ b/OldMutual/Input/FilteredStatementOfAccount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91888\OneDrive\Documents\UiPath\Old Mutual Final - Ramesh\Old-Mutual-Excel-Automation\OldMutual\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0E0DAB-1C13-4695-B861-8B310D195724}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E32399C-1455-43A0-97E0-3855ABEE75D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" firstSheet="0" activeTab="0" xr2:uid="{B8E2241E-28FF-49F9-87F9-1C794DB6A123}"/>
   </x:bookViews>
@@ -7797,9 +7797,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:U701"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <x:selection activeCell="Q1" sqref="Q1"/>
-    </x:sheetView>
+    <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.710625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:cols>

--- a/OldMutual/Input/FilteredStatementOfAccount.xlsx
+++ b/OldMutual/Input/FilteredStatementOfAccount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91888\OneDrive\Documents\UiPath\Old Mutual Final - Ramesh\Old-Mutual-Excel-Automation\OldMutual\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E32399C-1455-43A0-97E0-3855ABEE75D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B14007-44D7-4789-B6D4-E968B7D43062}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" firstSheet="0" activeTab="0" xr2:uid="{B8E2241E-28FF-49F9-87F9-1C794DB6A123}"/>
   </x:bookViews>

--- a/OldMutual/Input/FilteredStatementOfAccount.xlsx
+++ b/OldMutual/Input/FilteredStatementOfAccount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91888\OneDrive\Documents\UiPath\Old Mutual Final - Ramesh\Old-Mutual-Excel-Automation\OldMutual\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B14007-44D7-4789-B6D4-E968B7D43062}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A67970A-2F59-46E2-B0AA-66D336C019A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" firstSheet="0" activeTab="0" xr2:uid="{B8E2241E-28FF-49F9-87F9-1C794DB6A123}"/>
   </x:bookViews>

--- a/OldMutual/Input/FilteredStatementOfAccount.xlsx
+++ b/OldMutual/Input/FilteredStatementOfAccount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91888\OneDrive\Documents\UiPath\Old Mutual Final - Ramesh\Old-Mutual-Excel-Automation\OldMutual\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A67970A-2F59-46E2-B0AA-66D336C019A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6A55F0-B3CF-4329-AAAE-FA352DF66A2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" firstSheet="0" activeTab="0" xr2:uid="{B8E2241E-28FF-49F9-87F9-1C794DB6A123}"/>
   </x:bookViews>
